--- a/outputs/Esc biodata qc flag definitions mapping 2024-06-10.xlsx
+++ b/outputs/Esc biodata qc flag definitions mapping 2024-06-10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAVIDSONKA\Documents\ANALYSIS\qcMe\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E77052-277C-46EE-82F4-D914D044385F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4E3536-4E9D-424E-BF68-9BDB3C8A3122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>qc_gear_typo</t>
   </si>
   <si>
-    <t>qc_length_flag</t>
-  </si>
-  <si>
     <t>qc_month_flags</t>
   </si>
   <si>
@@ -79,55 +76,58 @@
     <t>qc_subarea_flag</t>
   </si>
   <si>
-    <t xml:space="preserve">Inconsistent spelling/entries for the same (or similar) gear types. Require correcting. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duplicate Whatman numbers; will affect joining to results. Requires sleuthing to see if typo, correcting, or flagging. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duplicate scale book-cell numbers; will affect joining to results. Requires sleuthing to see if typo, correcting, or flagging. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duplicate otolith lab-box-vial numbers; will affect joining to results. Requires sleuthing to see if typo, correcting, or flagging. </t>
-  </si>
-  <si>
-    <t>Sampling end date is before start date. Requires correcting.</t>
-  </si>
-  <si>
-    <t>Scale book number contains "SP" or "SC". May be an issue if the lab re-named books. Check up on these books and see if they are present in PADS. May not require any action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More than 1 stat area is given in the "Stat Area" column. May not require any action. </t>
-  </si>
-  <si>
-    <t>Illogical lengths: POH &gt; FL, POH &gt; Standard, Fork &gt; Standard, POF &gt; Fork, POF &gt; Standard, POH &gt; Standard. Requires sleuthing and fixing.</t>
-  </si>
-  <si>
     <t xml:space="preserve">"Month" column is empty, or the "Month" is not the same as the month given in sampling start/end date. </t>
   </si>
   <si>
-    <t>Two DNA samples were collected per fish. Requires confirming with either area bio/tech or deciding the reason for each sample type (e.g., baseline vs. GSI?). May not require fixing, just clarification (e.g., new columns for "DNA Sample Intention"?)</t>
-  </si>
-  <si>
-    <t>Non-standard otolith box ID (e.g., "Env"). Requires fixing if possible, or flagging for future results joining.</t>
-  </si>
-  <si>
-    <t>Non-standard otolith vial ID (i.e., not a number between 1-100). Requires fixing if possible, or flagging for future results joining.</t>
-  </si>
-  <si>
-    <t>Non-standard scale book number: &gt;6 characters, which indicates the lab may change the number. This requires sleuthing in PADS to see if the lab changed the book #, and probably change in our file before upload to EPRO(?).</t>
-  </si>
-  <si>
-    <t>Non-standard scale cell number: field crews often enter 11,21,31 or ranges depending on the format, but the lab changes these to integers (1,2,3) to align with their database. This requires sleuthing in PADS to see if the lab changed the cell #, and probably change in our file before upload to EPRO(?).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All of the unique River name entries in this file. Look for typos. This is a manual flag so will require the use to identify typos. </t>
-  </si>
-  <si>
-    <t>Inconsistent assignment of Male/M/Female/F/Jack/J. Recommend adopting a "Maturity Class" column as EPRO does, and assign to one of Female/Male/Jack/Jill (this identifies that it is a visual assessment and not a size or age based designation).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub-area isn't in proper format (##-#), there are multiple sub-areas, or no sub area. Where possible, add missing sub-areas, clean up typos, and confirm entries. </t>
+    <t xml:space="preserve">Inconsistent assignment of Male/M/Female/F/Jack/J.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scale book number contains "SP" or "SC". May be an issue if the lab re-named books.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">More than 1 stat area is given in the "Stat Area" column.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling end date is before start date. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicate otolith lab-box-vial numbers; will affect joining to results. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicate scale book-cell numbers; will affect joining to results. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicate Whatman numbers; will affect joining to results. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illogical lengths: POH &gt; FL, POH &gt; Standard, Fork &gt; Standard, POF &gt; Fork, POF &gt; Standard, POH &gt; Standard. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two DNA samples were collected per fish. Requires confirming with either area bio/tech or deciding the reason for each sample type (e.g., baseline vs. GSI?). </t>
+  </si>
+  <si>
+    <t>Non-standard otolith box ID (e.g., "Env").</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-standard otolith vial ID (i.e., not a number between 1-100). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-standard scale book number: &lt;6 characters, which indicates the lab may change the number. </t>
+  </si>
+  <si>
+    <t>Non-standard scale cell number: field crews often enter 11,21,31 or ranges depending on the format, but the lab changes these to integers (1,2,3) to align with their database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All of the unique River name entries in this file. Look for typos. This is a manual flag so will require the user to identify if there are typos. </t>
+  </si>
+  <si>
+    <t>Inconsistent spelling/entries for the same (or similar) gear types. This is a manual flag so will require the user to identify if there are typos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub-area isn't in proper format (##-#), there are multiple sub-areas, or no sub area. </t>
+  </si>
+  <si>
+    <t>qc_multilength_flag</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +507,7 @@
         <v>280</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -518,7 +518,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -551,7 +551,7 @@
         <v>280</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -562,7 +562,7 @@
         <v>291</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -573,12 +573,12 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -589,101 +589,101 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>740</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>456</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>913</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>1991</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>4162</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
